--- a/Teaching/ratemaking/Excel/Freq-Sev.xlsx
+++ b/Teaching/ratemaking/Excel/Freq-Sev.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6666B2A-674D-4881-B1FC-DE40281FADEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Count_Triangles" sheetId="1" r:id="rId1"/>
     <sheet name="Severity_Triangles" sheetId="4" r:id="rId2"/>
     <sheet name="Ultimate" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>chewcy</author>
   </authors>
   <commentList>
-    <comment ref="L50" authorId="0">
+    <comment ref="L50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y50" authorId="0">
+    <comment ref="Y50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +91,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>chewcy</author>
   </authors>
   <commentList>
-    <comment ref="L66" authorId="0">
+    <comment ref="L66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
   <si>
     <t>Auto Collision Insurer</t>
   </si>
@@ -253,18 +270,21 @@
   <si>
     <t>Claims</t>
   </si>
+  <si>
+    <t>% Reported</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="&quot;Latest &quot;\ 0&quot;Y&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +734,14 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -760,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,9 +820,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,6 +872,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,15 +1065,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:Y52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="15" customWidth="1"/>
@@ -1020,17 +1084,17 @@
     <col min="16" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1038,11 +1102,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="3.75" customHeight="1" thickBot="1">
+    <row r="5" spans="2:25" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1138,7 @@
       <c r="X6" s="17"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="2:25" ht="15.75" thickBot="1">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1274,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="9" spans="2:25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1338,7 @@
       </c>
       <c r="Y9" s="39"/>
     </row>
-    <row r="10" spans="2:25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1398,7 @@
       <c r="X10" s="38"/>
       <c r="Y10" s="39"/>
     </row>
-    <row r="11" spans="2:25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1454,7 @@
       <c r="X11" s="38"/>
       <c r="Y11" s="39"/>
     </row>
-    <row r="12" spans="2:25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1506,7 @@
       <c r="X12" s="38"/>
       <c r="Y12" s="39"/>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1554,7 @@
       <c r="X13" s="38"/>
       <c r="Y13" s="39"/>
     </row>
-    <row r="14" spans="2:25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1598,7 @@
       <c r="X14" s="38"/>
       <c r="Y14" s="39"/>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +1638,7 @@
       <c r="X15" s="38"/>
       <c r="Y15" s="39"/>
     </row>
-    <row r="16" spans="2:25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1674,7 @@
       <c r="X16" s="38"/>
       <c r="Y16" s="39"/>
     </row>
-    <row r="17" spans="2:25" ht="15.75" thickBot="1">
+    <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1706,7 @@
       <c r="X17" s="41"/>
       <c r="Y17" s="42"/>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
@@ -1651,11 +1715,11 @@
         <v>Link Ratio Triangle</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="3.75" customHeight="1" thickBot="1">
+    <row r="21" spans="2:25" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1752,7 @@
       <c r="X22" s="17"/>
       <c r="Y22" s="18"/>
     </row>
-    <row r="23" spans="2:25" ht="15.75" thickBot="1">
+    <row r="23" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1840,7 @@
         <v>60 - Ult</v>
       </c>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +1868,7 @@
       <c r="X24" s="44"/>
       <c r="Y24" s="45"/>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1896,7 @@
       <c r="X25" s="47"/>
       <c r="Y25" s="48"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1924,7 @@
       <c r="X26" s="47"/>
       <c r="Y26" s="48"/>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1952,7 @@
       <c r="X27" s="47"/>
       <c r="Y27" s="48"/>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1980,7 @@
       <c r="X28" s="47"/>
       <c r="Y28" s="48"/>
     </row>
-    <row r="29" spans="2:25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
@@ -1944,7 +2008,7 @@
       <c r="X29" s="47"/>
       <c r="Y29" s="48"/>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +2036,7 @@
       <c r="X30" s="47"/>
       <c r="Y30" s="48"/>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2064,7 @@
       <c r="X31" s="47"/>
       <c r="Y31" s="48"/>
     </row>
-    <row r="32" spans="2:25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2092,7 @@
       <c r="X32" s="47"/>
       <c r="Y32" s="48"/>
     </row>
-    <row r="33" spans="2:25" ht="15.75" thickBot="1">
+    <row r="33" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2120,7 @@
       <c r="X33" s="50"/>
       <c r="Y33" s="51"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
         <v>20</v>
       </c>
@@ -2084,7 +2148,7 @@
       <c r="X34" s="24"/>
       <c r="Y34" s="25"/>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
         <v>21</v>
       </c>
@@ -2139,7 +2203,7 @@
       <c r="X35" s="47"/>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="28">
         <v>5</v>
       </c>
@@ -2194,7 +2258,7 @@
       <c r="X36" s="47"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" ht="15.75" thickBot="1">
+    <row r="37" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="29">
         <v>3</v>
       </c>
@@ -2249,7 +2313,7 @@
       <c r="X37" s="50"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="27" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2341,7 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="11"/>
     </row>
-    <row r="39" spans="2:25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
         <v>21</v>
       </c>
@@ -2332,7 +2396,7 @@
       <c r="X39" s="47"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="2:25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="28">
         <v>5</v>
       </c>
@@ -2387,7 +2451,7 @@
       <c r="X40" s="47"/>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="2:25" ht="15.75" thickBot="1">
+    <row r="41" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="29">
         <v>3</v>
       </c>
@@ -2442,7 +2506,7 @@
       <c r="X41" s="50"/>
       <c r="Y41" s="13"/>
     </row>
-    <row r="42" spans="2:25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
         <v>23</v>
       </c>
@@ -2470,7 +2534,7 @@
       <c r="X42" s="10"/>
       <c r="Y42" s="11"/>
     </row>
-    <row r="43" spans="2:25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2589,7 @@
       <c r="X43" s="47"/>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="2:25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="28">
         <v>5</v>
       </c>
@@ -2580,7 +2644,7 @@
       <c r="X44" s="47"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="2:25" ht="15.75" thickBot="1">
+    <row r="45" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="29">
         <v>3</v>
       </c>
@@ -2635,7 +2699,7 @@
       <c r="X45" s="50"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="27" t="s">
         <v>24</v>
       </c>
@@ -2663,7 +2727,7 @@
       <c r="X46" s="10"/>
       <c r="Y46" s="11"/>
     </row>
-    <row r="47" spans="2:25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="26" t="s">
         <v>21</v>
       </c>
@@ -2718,7 +2782,7 @@
       <c r="X47" s="47"/>
       <c r="Y47" s="12"/>
     </row>
-    <row r="48" spans="2:25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="28">
         <v>5</v>
       </c>
@@ -2773,7 +2837,7 @@
       <c r="X48" s="47"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:25" ht="15.75" thickBot="1">
+    <row r="49" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="29">
         <v>3</v>
       </c>
@@ -2828,7 +2892,7 @@
       <c r="X49" s="50"/>
       <c r="Y49" s="13"/>
     </row>
-    <row r="50" spans="2:25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>28</v>
       </c>
@@ -2856,7 +2920,7 @@
       <c r="X50" s="52"/>
       <c r="Y50" s="56"/>
     </row>
-    <row r="51" spans="2:25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
@@ -2884,7 +2948,7 @@
       <c r="X51" s="47"/>
       <c r="Y51" s="48"/>
     </row>
-    <row r="52" spans="2:25" ht="15.75" thickBot="1">
+    <row r="52" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>29</v>
       </c>
@@ -2899,7 +2963,7 @@
       <c r="K52" s="53"/>
       <c r="L52" s="57"/>
       <c r="O52" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="P52" s="53"/>
       <c r="Q52" s="53"/>
@@ -2920,15 +2984,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:L68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="15" customWidth="1"/>
@@ -2937,25 +3001,25 @@
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="3.75" customHeight="1" thickBot="1">
+    <row r="5" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
@@ -2972,7 +3036,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -3007,7 +3071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
@@ -3042,7 +3106,7 @@
         <v>14847</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3139,7 @@
       </c>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3170,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
@@ -3135,7 +3199,7 @@
       <c r="K11" s="30"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
@@ -3162,7 +3226,7 @@
       <c r="K12" s="30"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3251,7 @@
       <c r="K13" s="30"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
@@ -3210,7 +3274,7 @@
       <c r="K14" s="30"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
@@ -3231,7 +3295,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3314,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>13</v>
       </c>
@@ -3267,15 +3331,15 @@
       <c r="K17" s="32"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="3.75" customHeight="1" thickBot="1">
+    <row r="21" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3356,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>3</v>
       </c>
@@ -3327,7 +3391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
@@ -3342,7 +3406,7 @@
       <c r="K24" s="68"/>
       <c r="L24" s="61"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3421,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="61"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
@@ -3372,7 +3436,7 @@
       <c r="K26" s="68"/>
       <c r="L26" s="61"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
@@ -3387,7 +3451,7 @@
       <c r="K27" s="68"/>
       <c r="L27" s="61"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
@@ -3402,7 +3466,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="61"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
@@ -3417,7 +3481,7 @@
       <c r="K29" s="68"/>
       <c r="L29" s="61"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3496,7 @@
       <c r="K30" s="68"/>
       <c r="L30" s="61"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>11</v>
       </c>
@@ -3447,7 +3511,7 @@
       <c r="K31" s="68"/>
       <c r="L31" s="61"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>12</v>
       </c>
@@ -3462,7 +3526,7 @@
       <c r="K32" s="68"/>
       <c r="L32" s="61"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>13</v>
       </c>
@@ -3477,15 +3541,15 @@
       <c r="K33" s="69"/>
       <c r="L33" s="63"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="3.75" customHeight="1" thickBot="1">
+    <row r="37" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3566,7 @@
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" thickBot="1">
+    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="19" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3611,7 @@
         <v>60 - Ult</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3656,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
         <v>5</v>
       </c>
@@ -3637,7 +3701,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
         <v>6</v>
       </c>
@@ -3682,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3791,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>8</v>
       </c>
@@ -3772,7 +3836,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
         <v>9</v>
       </c>
@@ -3817,7 +3881,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
         <v>10</v>
       </c>
@@ -3862,7 +3926,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
         <v>11</v>
       </c>
@@ -3907,7 +3971,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +4016,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="15.75" thickBot="1">
+    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="19" t="s">
         <v>13</v>
       </c>
@@ -3997,7 +4061,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
         <v>20</v>
       </c>
@@ -4012,7 +4076,7 @@
       <c r="K50" s="24"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="26" t="s">
         <v>21</v>
       </c>
@@ -4054,7 +4118,7 @@
       </c>
       <c r="L51" s="12"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="28">
         <v>5</v>
       </c>
@@ -4096,7 +4160,7 @@
       </c>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" thickBot="1">
+    <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="29">
         <v>3</v>
       </c>
@@ -4138,7 +4202,7 @@
       </c>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="27" t="s">
         <v>22</v>
       </c>
@@ -4153,7 +4217,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="s">
         <v>21</v>
       </c>
@@ -4195,7 +4259,7 @@
       </c>
       <c r="L55" s="12"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="28">
         <v>5</v>
       </c>
@@ -4237,7 +4301,7 @@
       </c>
       <c r="L56" s="12"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" thickBot="1">
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="29">
         <v>3</v>
       </c>
@@ -4279,7 +4343,7 @@
       </c>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="27" t="s">
         <v>23</v>
       </c>
@@ -4294,7 +4358,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>21</v>
       </c>
@@ -4336,7 +4400,7 @@
       </c>
       <c r="L59" s="12"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="28">
         <v>5</v>
       </c>
@@ -4378,7 +4442,7 @@
       </c>
       <c r="L60" s="12"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" thickBot="1">
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="29">
         <v>3</v>
       </c>
@@ -4420,7 +4484,7 @@
       </c>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="27" t="s">
         <v>24</v>
       </c>
@@ -4435,7 +4499,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>21</v>
       </c>
@@ -4477,7 +4541,7 @@
       </c>
       <c r="L63" s="12"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="28">
         <v>5</v>
       </c>
@@ -4519,7 +4583,7 @@
       </c>
       <c r="L64" s="12"/>
     </row>
-    <row r="65" spans="2:12" ht="15.75" thickBot="1">
+    <row r="65" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="29">
         <v>3</v>
       </c>
@@ -4561,7 +4625,7 @@
       </c>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>28</v>
       </c>
@@ -4605,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>27</v>
       </c>
@@ -4650,9 +4714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15.75" thickBot="1">
+    <row r="68" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C68" s="53"/>
       <c r="D68" s="53"/>
@@ -4673,45 +4737,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="3" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="9" t="s">
         <v>30</v>
@@ -4720,11 +4777,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="3.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
         <v>1</v>
@@ -4755,7 +4812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
         <v>3</v>
@@ -4794,7 +4851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
         <v>4</v>
@@ -4831,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="22" t="s">
         <v>5</v>
@@ -4866,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="22" t="s">
         <v>6</v>
@@ -4901,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="22" t="s">
         <v>7</v>
@@ -4936,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -4971,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="22" t="s">
         <v>9</v>
@@ -5006,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="22" t="s">
         <v>10</v>
@@ -5041,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="22" t="s">
         <v>11</v>
@@ -5076,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="22" t="s">
         <v>12</v>
@@ -5111,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>13</v>
@@ -5145,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
@@ -5181,13 +5238,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="74" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="3.75" customHeight="1" thickBot="1"/>
-    <row r="23" spans="1:15">
+    <row r="22" spans="1:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
@@ -5199,7 +5256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>3</v>
       </c>
@@ -5213,7 +5270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>4</v>
       </c>
@@ -5230,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>5</v>
       </c>
@@ -5247,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>6</v>
       </c>
@@ -5264,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>7</v>
       </c>
@@ -5281,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
@@ -5298,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
@@ -5315,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>10</v>
       </c>
@@ -5332,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>11</v>
       </c>
@@ -5349,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1">
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="64" t="s">
         <v>34</v>
       </c>
